--- a/AuthorizationDecisions.xlsx
+++ b/AuthorizationDecisions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>User Role</t>
   </si>
@@ -44,61 +44,64 @@
     <t>Student Role</t>
   </si>
   <si>
-    <t>University: Select</t>
-  </si>
-  <si>
-    <t>Instructor: Select, Update</t>
-  </si>
-  <si>
-    <t>Student: Select</t>
-  </si>
-  <si>
-    <t>Course: Select, Update, Insert</t>
-  </si>
-  <si>
     <t>CreditCardInfo: None</t>
   </si>
   <si>
     <t>Transaction: None</t>
   </si>
   <si>
-    <t>Admin Role</t>
-  </si>
-  <si>
-    <t>University: All</t>
-  </si>
-  <si>
-    <t>Instructor: All</t>
-  </si>
-  <si>
-    <t>Student: All</t>
-  </si>
-  <si>
-    <t>Course: All</t>
-  </si>
-  <si>
-    <t>CreditCardInfo: All</t>
-  </si>
-  <si>
-    <t>Transaction: All</t>
-  </si>
-  <si>
-    <t>Instructor: Select</t>
-  </si>
-  <si>
-    <t>Course: Select</t>
-  </si>
-  <si>
-    <t>Transaction: Select, Update, Insert</t>
-  </si>
-  <si>
-    <t>University: Select, Update</t>
-  </si>
-  <si>
-    <t>Student: Select, Update</t>
-  </si>
-  <si>
-    <t>CreditCardInfo: Select, Update</t>
+    <t xml:space="preserve">University: Select, Read </t>
+  </si>
+  <si>
+    <t>Instructor: Select, Read</t>
+  </si>
+  <si>
+    <t>Student: Select, Update, Delete, Read, Insert</t>
+  </si>
+  <si>
+    <t>Course: Select, Read</t>
+  </si>
+  <si>
+    <t>CreditCardInfo: Select, Update, Insert, Delete, Read</t>
+  </si>
+  <si>
+    <t>Transaction: Select, Read, Insert</t>
+  </si>
+  <si>
+    <t>Rating: Select, Update, Read, Insert, Delete</t>
+  </si>
+  <si>
+    <t>Instructor: Select, Read, Insert, Update, Delete</t>
+  </si>
+  <si>
+    <t>Course: Select, Read, Insert, Update, Delete</t>
+  </si>
+  <si>
+    <t>Student: Select, Read</t>
+  </si>
+  <si>
+    <t>Rating: Select, Read</t>
+  </si>
+  <si>
+    <t>Transaction: Select, Read</t>
+  </si>
+  <si>
+    <t>Coursera Admin Role</t>
+  </si>
+  <si>
+    <t>University: Select, Read, Insert, Update, Delete</t>
+  </si>
+  <si>
+    <t>Student: Select, Read, Update, Delete</t>
+  </si>
+  <si>
+    <t>Instructor: Select, Read, Update, Delete</t>
+  </si>
+  <si>
+    <t>Course: Select, Read, Update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University: Select, Read, Delete, Update </t>
   </si>
 </sst>
 </file>
@@ -450,16 +453,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="2" max="2" width="33.5" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="72" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -475,130 +478,150 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
+      <c r="B20" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>13</v>
+      <c r="B21" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>14</v>
+      <c r="B22" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>17</v>
       </c>
     </row>
